--- a/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
+++ b/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="iris_data" localSheetId="0">Sheet1!$A$1:$E$150</definedName>
+    <definedName name="iris_data" localSheetId="0">'Raw Data'!$A$1:$E$150</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Min</t>
   </si>
@@ -51,14 +50,34 @@
   <si>
     <t>Petal Length</t>
   </si>
+  <si>
+    <t>Sepal Width</t>
+  </si>
+  <si>
+    <t>Petal Width</t>
+  </si>
+  <si>
+    <t>Final Output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,6 +319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="14">
-        <f>MIN($A$1:$A$50)</f>
-        <v>4.3</v>
+        <f>MIN($B$1:$B$50)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I2" s="14">
-        <f>MAX($A$1:$A$50)</f>
-        <v>5.8</v>
+        <f>MAX($B$1:$B$50)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J2" s="15">
-        <f>AVERAGE($A$1:$A$50)</f>
-        <v>5.0059999999999993</v>
+        <f>AVERAGE($B$1:$B$50)</f>
+        <v>3.4280000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -696,16 +734,16 @@
         <v>3</v>
       </c>
       <c r="H3" s="14">
-        <f>MIN($B$1:$B$50)</f>
-        <v>2.2999999999999998</v>
+        <f>MIN($A$1:$A$50)</f>
+        <v>4.3</v>
       </c>
       <c r="I3" s="14">
-        <f>MAX($B$1:$B$50)</f>
-        <v>4.4000000000000004</v>
+        <f>MAX($A$1:$A$50)</f>
+        <v>5.8</v>
       </c>
       <c r="J3" s="15">
-        <f>AVERAGE($B$1:$B$50)</f>
-        <v>3.4280000000000008</v>
+        <f>AVERAGE($A$1:$A$50)</f>
+        <v>5.0059999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="14">
-        <f>MIN($C$1:$C$50)</f>
-        <v>1</v>
+        <f>MIN($D$1:$D$50)</f>
+        <v>0.1</v>
       </c>
       <c r="I4" s="14">
-        <f>MAX($C$1:$C$50)</f>
-        <v>1.9</v>
+        <f>MAX($D$1:$D$50)</f>
+        <v>0.6</v>
       </c>
       <c r="J4" s="15">
-        <f>AVERAGE($C$1:$C$50)</f>
-        <v>1.4620000000000002</v>
+        <f>AVERAGE($D$1:$D$50)</f>
+        <v>0.24599999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,16 +798,16 @@
         <v>4</v>
       </c>
       <c r="H5" s="17">
-        <f>MIN($D$1:$D$50)</f>
-        <v>0.1</v>
+        <f>MIN($C$1:$C$50)</f>
+        <v>1</v>
       </c>
       <c r="I5" s="17">
-        <f>MAX($D$1:$D$50)</f>
-        <v>0.6</v>
+        <f>MAX($C$1:$C$50)</f>
+        <v>1.9</v>
       </c>
       <c r="J5" s="18">
-        <f>AVERAGE($D$1:$D$50)</f>
-        <v>0.24599999999999991</v>
+        <f>AVERAGE($C$1:$C$50)</f>
+        <v>1.4620000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1581,19 +1619,19 @@
         <v>1</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H52" s="14">
-        <f>MIN($A$51:$A$100)</f>
-        <v>4.9000000000000004</v>
+        <f>MIN($B$51:$B$100)</f>
+        <v>2</v>
       </c>
       <c r="I52" s="14">
-        <f>MAX($A$51:$A$100)</f>
-        <v>7</v>
+        <f>MAX($B$51:$B$100)</f>
+        <v>3.4</v>
       </c>
       <c r="J52" s="15">
-        <f>AVERAGE($A$51:$A$100)</f>
-        <v>5.9359999999999999</v>
+        <f>AVERAGE($B$51:$B$100)</f>
+        <v>2.7700000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1616,16 +1654,16 @@
         <v>3</v>
       </c>
       <c r="H53" s="14">
-        <f>MIN($B$51:$B$100)</f>
-        <v>2</v>
+        <f>MIN($A$51:$A$100)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I53" s="14">
-        <f>MAX($B$51:$B$100)</f>
-        <v>3.4</v>
+        <f>MAX($A$51:$A$100)</f>
+        <v>7</v>
       </c>
       <c r="J53" s="15">
-        <f>AVERAGE($B$51:$B$100)</f>
-        <v>2.7700000000000005</v>
+        <f>AVERAGE($A$51:$A$100)</f>
+        <v>5.9359999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1645,19 +1683,19 @@
         <v>1</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54" s="14">
-        <f>MIN($C$51:$C$100)</f>
-        <v>3</v>
+        <f>MIN($D$51:$D$100)</f>
+        <v>1</v>
       </c>
       <c r="I54" s="14">
-        <f>MAX($C$51:$C$100)</f>
-        <v>5.0999999999999996</v>
+        <f>MAX($D$51:$D$100)</f>
+        <v>1.8</v>
       </c>
       <c r="J54" s="15">
-        <f>AVERAGE($C$51:$C$100)</f>
-        <v>4.26</v>
+        <f>AVERAGE($D$51:$D$100)</f>
+        <v>1.3259999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,16 +1718,16 @@
         <v>4</v>
       </c>
       <c r="H55" s="17">
-        <f>MIN($D$51:$D$100)</f>
-        <v>1</v>
+        <f>MIN($C$51:$C$100)</f>
+        <v>3</v>
       </c>
       <c r="I55" s="17">
-        <f>MAX($D$51:$D$100)</f>
-        <v>1.8</v>
+        <f>MAX($C$51:$C$100)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J55" s="18">
-        <f>AVERAGE($D$51:$D$100)</f>
-        <v>1.3259999999999998</v>
+        <f>AVERAGE($C$51:$C$100)</f>
+        <v>4.26</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2501,19 +2539,19 @@
         <v>2</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H102" s="14">
-        <f>MIN($A$101:$A$150)</f>
-        <v>4.9000000000000004</v>
+        <f>MIN($B$101:$B$150)</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I102" s="14">
-        <f>MAX($A$101:$A$150)</f>
-        <v>7.9</v>
+        <f>MAX($B$101:$B$150)</f>
+        <v>3.8</v>
       </c>
       <c r="J102" s="15">
-        <f>AVERAGE($A$101:$A$150)</f>
-        <v>6.5879999999999983</v>
+        <f>AVERAGE($B$101:$B$150)</f>
+        <v>2.9739999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -2536,16 +2574,16 @@
         <v>3</v>
       </c>
       <c r="H103" s="14">
-        <f>MIN($B$101:$B$150)</f>
-        <v>2.2000000000000002</v>
+        <f>MIN($A$101:$A$150)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I103" s="14">
-        <f>MAX($B$101:$B$150)</f>
-        <v>3.8</v>
+        <f>MAX($A$101:$A$150)</f>
+        <v>7.9</v>
       </c>
       <c r="J103" s="15">
-        <f>AVERAGE($B$101:$B$150)</f>
-        <v>2.9739999999999998</v>
+        <f>AVERAGE($A$101:$A$150)</f>
+        <v>6.5879999999999983</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,19 +2603,19 @@
         <v>2</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H104" s="14">
-        <f>MIN($C$101:$C$150)</f>
-        <v>4.5</v>
+        <f>MIN($D$101:$D$150)</f>
+        <v>1.4</v>
       </c>
       <c r="I104" s="14">
-        <f>MAX($C$101:$C$150)</f>
-        <v>6.9</v>
+        <f>MAX($D$101:$D$150)</f>
+        <v>2.5</v>
       </c>
       <c r="J104" s="15">
-        <f>AVERAGE($C$101:$C$150)</f>
-        <v>5.5519999999999996</v>
+        <f>AVERAGE($D$101:$D$150)</f>
+        <v>2.0259999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,16 +2638,16 @@
         <v>4</v>
       </c>
       <c r="H105" s="17">
-        <f>MIN($D$101:$D$150)</f>
-        <v>1.4</v>
+        <f>MIN($C$101:$C$150)</f>
+        <v>4.5</v>
       </c>
       <c r="I105" s="17">
-        <f>MAX($D$101:$D$150)</f>
-        <v>2.5</v>
+        <f>MAX($C$101:$C$150)</f>
+        <v>6.9</v>
       </c>
       <c r="J105" s="18">
-        <f>AVERAGE($D$101:$D$150)</f>
-        <v>2.0259999999999998</v>
+        <f>AVERAGE($C$101:$C$150)</f>
+        <v>5.5519999999999996</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3386,24 +3424,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25">
+        <f>'Raw Data'!$H$2</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C3" s="25">
+        <f>'Raw Data'!$I$2</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D3" s="11">
+        <f>'Raw Data'!$J$2</f>
+        <v>3.4280000000000008</v>
+      </c>
+      <c r="E3" s="25">
+        <f>'Raw Data'!$H$3</f>
+        <v>4.3</v>
+      </c>
+      <c r="F3" s="25">
+        <f>'Raw Data'!$I$3</f>
+        <v>5.8</v>
+      </c>
+      <c r="G3" s="11">
+        <f>'Raw Data'!$J$3</f>
+        <v>5.0059999999999993</v>
+      </c>
+      <c r="H3" s="25">
+        <f>'Raw Data'!$H$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="25">
+        <f>'Raw Data'!$I$4</f>
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="11">
+        <f>'Raw Data'!$J$4</f>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="K3" s="25">
+        <f>'Raw Data'!$H$5</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="25">
+        <f>'Raw Data'!$I$5</f>
+        <v>1.9</v>
+      </c>
+      <c r="M3" s="12">
+        <f>'Raw Data'!$J$5</f>
+        <v>1.4620000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <f>'Raw Data'!$H$52</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
+        <f>'Raw Data'!$I$52</f>
+        <v>3.4</v>
+      </c>
+      <c r="D4" s="14">
+        <f>'Raw Data'!$J$52</f>
+        <v>2.7700000000000005</v>
+      </c>
+      <c r="E4" s="26">
+        <f>'Raw Data'!$H$53</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F4" s="26">
+        <f>'Raw Data'!$I$53</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="14">
+        <f>'Raw Data'!$J$53</f>
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="H4" s="26">
+        <f>'Raw Data'!$H$54</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <f>'Raw Data'!$I$54</f>
+        <v>1.8</v>
+      </c>
+      <c r="J4" s="14">
+        <f>'Raw Data'!$J$54</f>
+        <v>1.3259999999999998</v>
+      </c>
+      <c r="K4" s="26">
+        <f>'Raw Data'!$H$55</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="26">
+        <f>'Raw Data'!$I$55</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M4" s="15">
+        <f>'Raw Data'!$J$55</f>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27">
+        <f>'Raw Data'!$H$102</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C5" s="27">
+        <f>'Raw Data'!$I$102</f>
+        <v>3.8</v>
+      </c>
+      <c r="D5" s="17">
+        <f>'Raw Data'!$J$102</f>
+        <v>2.9739999999999998</v>
+      </c>
+      <c r="E5" s="27">
+        <f>'Raw Data'!$H$103</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5" s="27">
+        <f>'Raw Data'!$I$103</f>
+        <v>7.9</v>
+      </c>
+      <c r="G5" s="17">
+        <f>'Raw Data'!$J$103</f>
+        <v>6.5879999999999983</v>
+      </c>
+      <c r="H5" s="27">
+        <f>'Raw Data'!$H$104</f>
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="27">
+        <f>'Raw Data'!$I$104</f>
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="17">
+        <f>'Raw Data'!$J$104</f>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="K5" s="27">
+        <f>'Raw Data'!$H$105</f>
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="27">
+        <f>'Raw Data'!$I$105</f>
+        <v>6.9</v>
+      </c>
+      <c r="M5" s="18">
+        <f>'Raw Data'!$J$105</f>
+        <v>5.5519999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
+++ b/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="iris_data" localSheetId="0">'Raw Data'!$A$1:$E$150</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Min</t>
   </si>
@@ -59,15 +59,18 @@
   <si>
     <t>Final Output</t>
   </si>
+  <si>
+    <t>Stdev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,10 +81,14 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,175 +109,175 @@
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -344,11 +351,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,7 +433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -466,7 +467,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,20 +642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1">
       <c r="A1" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -681,8 +681,11 @@
       <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -713,8 +716,12 @@
         <f>AVERAGE($B$1:$B$50)</f>
         <v>3.4280000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="15">
+        <f>STDEVP($B$1:$B$50)</f>
+        <v>0.37525458025186098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>4.7</v>
       </c>
@@ -745,8 +752,12 @@
         <f>AVERAGE($A$1:$A$50)</f>
         <v>5.0059999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="15">
+        <f>STDEVP($A$1:$A$50)</f>
+        <v>0.34894698737773694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -777,8 +788,12 @@
         <f>AVERAGE($D$1:$D$50)</f>
         <v>0.24599999999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="15">
+        <f>STDEVP($D$1:$D$50)</f>
+        <v>0.1043264108459601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -809,8 +824,12 @@
         <f>AVERAGE($C$1:$C$50)</f>
         <v>1.4620000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="18">
+        <f>STDEVP($C$1:$C$50)</f>
+        <v>0.171918585382729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickTop="1">
       <c r="A6" s="4">
         <v>5.4</v>
       </c>
@@ -827,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -844,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -861,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -878,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -895,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>5.4</v>
       </c>
@@ -912,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>4.8</v>
       </c>
@@ -929,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>4.8</v>
       </c>
@@ -946,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>4.3</v>
       </c>
@@ -963,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>5.8</v>
       </c>
@@ -980,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>5.7</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>5.4</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1031,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>5.7</v>
       </c>
@@ -1048,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>5.4</v>
       </c>
@@ -1082,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1099,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1116,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>4.8</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1167,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>5.2</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>5.2</v>
       </c>
@@ -1218,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>4.7</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>4.8</v>
       </c>
@@ -1252,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>5.4</v>
       </c>
@@ -1269,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>5.2</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4">
         <v>5.5</v>
       </c>
@@ -1303,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1320,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4">
         <v>5.5</v>
       </c>
@@ -1354,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1371,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1388,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1405,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -1422,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4">
         <v>4.5</v>
       </c>
@@ -1439,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1490,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4">
         <v>4.8</v>
       </c>
@@ -1507,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1524,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1541,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>5.3</v>
       </c>
@@ -1558,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="7">
         <v>5</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" thickTop="1">
       <c r="A51" s="1">
         <v>7</v>
       </c>
@@ -1601,8 +1620,11 @@
       <c r="J51" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>6.4</v>
       </c>
@@ -1633,8 +1655,12 @@
         <f>AVERAGE($B$51:$B$100)</f>
         <v>2.7700000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="15">
+        <f>STDEVP($B$51:$B$100)</f>
+        <v>0.31064449134017902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>6.9</v>
       </c>
@@ -1665,8 +1691,12 @@
         <f>AVERAGE($A$51:$A$100)</f>
         <v>5.9359999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="15">
+        <f>STDEVP($A$51:$A$100)</f>
+        <v>0.51098336567838443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.5</v>
       </c>
@@ -1697,8 +1727,12 @@
         <f>AVERAGE($D$51:$D$100)</f>
         <v>1.3259999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="15">
+        <f>STDEVP($D$51:$D$100)</f>
+        <v>0.19576516544063563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1">
       <c r="A55" s="4">
         <v>6.5</v>
       </c>
@@ -1729,8 +1763,12 @@
         <f>AVERAGE($C$51:$C$100)</f>
         <v>4.26</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="18">
+        <f>STDEVP($C$51:$C$100)</f>
+        <v>0.46518813398452652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickTop="1">
       <c r="A56" s="4">
         <v>5.7</v>
       </c>
@@ -1747,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>6.3</v>
       </c>
@@ -1764,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1781,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>6.6</v>
       </c>
@@ -1798,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>5.2</v>
       </c>
@@ -1815,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -1832,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>5.9</v>
       </c>
@@ -1849,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>6</v>
       </c>
@@ -1866,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>6.1</v>
       </c>
@@ -1883,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="4">
         <v>5.6</v>
       </c>
@@ -1900,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="4">
         <v>6.7</v>
       </c>
@@ -1917,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="4">
         <v>5.6</v>
       </c>
@@ -1934,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="4">
         <v>5.8</v>
       </c>
@@ -1951,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="4">
         <v>6.2</v>
       </c>
@@ -1968,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="4">
         <v>5.6</v>
       </c>
@@ -1985,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="4">
         <v>5.9</v>
       </c>
@@ -2002,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="4">
         <v>6.1</v>
       </c>
@@ -2019,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="4">
         <v>6.3</v>
       </c>
@@ -2036,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="4">
         <v>6.1</v>
       </c>
@@ -2053,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="4">
         <v>6.4</v>
       </c>
@@ -2070,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="4">
         <v>6.6</v>
       </c>
@@ -2087,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="4">
         <v>6.8</v>
       </c>
@@ -2104,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="4">
         <v>6.7</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="4">
         <v>6</v>
       </c>
@@ -2138,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="4">
         <v>5.7</v>
       </c>
@@ -2155,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="4">
         <v>5.5</v>
       </c>
@@ -2172,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="4">
         <v>5.5</v>
       </c>
@@ -2189,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="4">
         <v>5.8</v>
       </c>
@@ -2206,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="4">
         <v>6</v>
       </c>
@@ -2223,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="4">
         <v>5.4</v>
       </c>
@@ -2240,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="4">
         <v>6</v>
       </c>
@@ -2257,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="4">
         <v>6.7</v>
       </c>
@@ -2274,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="4">
         <v>6.3</v>
       </c>
@@ -2291,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="4">
         <v>5.6</v>
       </c>
@@ -2308,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="4">
         <v>5.5</v>
       </c>
@@ -2325,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="4">
         <v>5.5</v>
       </c>
@@ -2342,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="4">
         <v>6.1</v>
       </c>
@@ -2359,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="4">
         <v>5.8</v>
       </c>
@@ -2376,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -2393,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="4">
         <v>5.6</v>
       </c>
@@ -2410,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="4">
         <v>5.7</v>
       </c>
@@ -2427,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <v>5.7</v>
       </c>
@@ -2444,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <v>6.2</v>
       </c>
@@ -2461,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -2478,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1">
       <c r="A100" s="7">
         <v>5.7</v>
       </c>
@@ -2495,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" thickTop="1">
       <c r="A101" s="19">
         <v>6.3</v>
       </c>
@@ -2521,8 +2559,11 @@
       <c r="J101" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <v>5.8</v>
       </c>
@@ -2553,8 +2594,12 @@
         <f>AVERAGE($B$101:$B$150)</f>
         <v>2.9739999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="15">
+        <f>STDEVP($B$101:$B$150)</f>
+        <v>0.31925538366643402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <v>7.1</v>
       </c>
@@ -2585,8 +2630,12 @@
         <f>AVERAGE($A$101:$A$150)</f>
         <v>6.5879999999999983</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="15">
+        <f>STDEVP($A$101:$A$150)</f>
+        <v>0.62948868139152014</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <v>6.3</v>
       </c>
@@ -2617,8 +2666,12 @@
         <f>AVERAGE($D$101:$D$150)</f>
         <v>2.0259999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K104" s="15">
+        <f>STDEVP($D$101:$D$150)</f>
+        <v>0.27188968351153242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" thickBot="1">
       <c r="A105" s="4">
         <v>6.5</v>
       </c>
@@ -2649,8 +2702,12 @@
         <f>AVERAGE($C$101:$C$150)</f>
         <v>5.5519999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="18">
+        <f>STDEVP($C$101:$C$150)</f>
+        <v>0.54634787452684053</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" thickTop="1">
       <c r="A106" s="4">
         <v>7.6</v>
       </c>
@@ -2667,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -2684,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="4">
         <v>7.3</v>
       </c>
@@ -2701,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="4">
         <v>6.7</v>
       </c>
@@ -2718,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <v>7.2</v>
       </c>
@@ -2735,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="4">
         <v>6.5</v>
       </c>
@@ -2752,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="4">
         <v>6.4</v>
       </c>
@@ -2769,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="4">
         <v>6.8</v>
       </c>
@@ -2786,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="4">
         <v>5.7</v>
       </c>
@@ -2803,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="4">
         <v>5.8</v>
       </c>
@@ -2820,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="4">
         <v>6.4</v>
       </c>
@@ -2837,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="4">
         <v>6.5</v>
       </c>
@@ -2854,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="4">
         <v>7.7</v>
       </c>
@@ -2871,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="4">
         <v>7.7</v>
       </c>
@@ -2888,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="4">
         <v>6</v>
       </c>
@@ -2905,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="4">
         <v>6.9</v>
       </c>
@@ -2922,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="4">
         <v>5.6</v>
       </c>
@@ -2939,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="4">
         <v>7.7</v>
       </c>
@@ -2956,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="4">
         <v>6.3</v>
       </c>
@@ -2973,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="4">
         <v>6.7</v>
       </c>
@@ -2990,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="4">
         <v>7.2</v>
       </c>
@@ -3007,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="4">
         <v>6.2</v>
       </c>
@@ -3024,7 +3081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="4">
         <v>6.1</v>
       </c>
@@ -3041,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="4">
         <v>6.4</v>
       </c>
@@ -3058,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="4">
         <v>7.2</v>
       </c>
@@ -3075,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="4">
         <v>7.4</v>
       </c>
@@ -3092,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="4">
         <v>7.9</v>
       </c>
@@ -3109,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="4">
         <v>6.4</v>
       </c>
@@ -3126,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="4">
         <v>6.3</v>
       </c>
@@ -3143,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="4">
         <v>6.1</v>
       </c>
@@ -3160,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="4">
         <v>7.7</v>
       </c>
@@ -3177,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="4">
         <v>6.3</v>
       </c>
@@ -3194,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="4">
         <v>6.4</v>
       </c>
@@ -3211,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="4">
         <v>6</v>
       </c>
@@ -3228,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="4">
         <v>6.9</v>
       </c>
@@ -3245,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="4">
         <v>6.7</v>
       </c>
@@ -3262,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="4">
         <v>6.9</v>
       </c>
@@ -3279,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="4">
         <v>5.8</v>
       </c>
@@ -3296,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="4">
         <v>6.8</v>
       </c>
@@ -3313,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="4">
         <v>6.7</v>
       </c>
@@ -3330,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="4">
         <v>6.7</v>
       </c>
@@ -3347,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="4">
         <v>6.3</v>
       </c>
@@ -3364,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="4">
         <v>6.5</v>
       </c>
@@ -3381,7 +3438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="4">
         <v>6.2</v>
       </c>
@@ -3398,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15.75" thickBot="1">
       <c r="A150" s="7">
         <v>5.9</v>
       </c>
@@ -3415,188 +3472,190 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1">
       <c r="A3" s="22">
         <v>0</v>
       </c>
       <c r="B3" s="25">
-        <f>'Raw Data'!$H$2</f>
+        <f ca="1">'Raw Data'!$H$2</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="C3" s="25">
-        <f>'Raw Data'!$I$2</f>
+        <f ca="1">'Raw Data'!$I$2</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D3" s="11">
-        <f>'Raw Data'!$J$2</f>
-        <v>3.4280000000000008</v>
+        <f ca="1">'Raw Data'!$K$2</f>
+        <v>0.37525458025186098</v>
       </c>
       <c r="E3" s="25">
-        <f>'Raw Data'!$H$3</f>
+        <f ca="1">'Raw Data'!$H$3</f>
         <v>4.3</v>
       </c>
       <c r="F3" s="25">
-        <f>'Raw Data'!$I$3</f>
+        <f ca="1">'Raw Data'!$I$3</f>
         <v>5.8</v>
       </c>
       <c r="G3" s="11">
-        <f>'Raw Data'!$J$3</f>
-        <v>5.0059999999999993</v>
+        <f ca="1">'Raw Data'!$K$3</f>
+        <v>0.34894698737773694</v>
       </c>
       <c r="H3" s="25">
-        <f>'Raw Data'!$H$4</f>
+        <f ca="1">'Raw Data'!$H$4</f>
         <v>0.1</v>
       </c>
       <c r="I3" s="25">
-        <f>'Raw Data'!$I$4</f>
+        <f ca="1">'Raw Data'!$I$4</f>
         <v>0.6</v>
       </c>
       <c r="J3" s="11">
-        <f>'Raw Data'!$J$4</f>
-        <v>0.24599999999999991</v>
+        <f ca="1">'Raw Data'!$K$4</f>
+        <v>0.1043264108459601</v>
       </c>
       <c r="K3" s="25">
-        <f>'Raw Data'!$H$5</f>
+        <f ca="1">'Raw Data'!$H$5</f>
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f>'Raw Data'!$I$5</f>
+        <f ca="1">'Raw Data'!$I$5</f>
         <v>1.9</v>
       </c>
       <c r="M3" s="12">
-        <f>'Raw Data'!$J$5</f>
-        <v>1.4620000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f ca="1">'Raw Data'!$K$5</f>
+        <v>0.171918585382729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="26">
-        <f>'Raw Data'!$H$52</f>
+        <f ca="1">'Raw Data'!$H$52</f>
         <v>2</v>
       </c>
       <c r="C4" s="26">
-        <f>'Raw Data'!$I$52</f>
+        <f ca="1">'Raw Data'!$I$52</f>
         <v>3.4</v>
       </c>
       <c r="D4" s="14">
-        <f>'Raw Data'!$J$52</f>
-        <v>2.7700000000000005</v>
+        <f ca="1">'Raw Data'!$K$52</f>
+        <v>0.31064449134017902</v>
       </c>
       <c r="E4" s="26">
-        <f>'Raw Data'!$H$53</f>
+        <f ca="1">'Raw Data'!$H$53</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="F4" s="26">
-        <f>'Raw Data'!$I$53</f>
+        <f ca="1">'Raw Data'!$I$53</f>
         <v>7</v>
       </c>
       <c r="G4" s="14">
-        <f>'Raw Data'!$J$53</f>
-        <v>5.9359999999999999</v>
+        <f ca="1">'Raw Data'!$K$53</f>
+        <v>0.51098336567838443</v>
       </c>
       <c r="H4" s="26">
-        <f>'Raw Data'!$H$54</f>
+        <f ca="1">'Raw Data'!$H$54</f>
         <v>1</v>
       </c>
       <c r="I4" s="26">
-        <f>'Raw Data'!$I$54</f>
+        <f ca="1">'Raw Data'!$I$54</f>
         <v>1.8</v>
       </c>
       <c r="J4" s="14">
-        <f>'Raw Data'!$J$54</f>
-        <v>1.3259999999999998</v>
+        <f ca="1">'Raw Data'!$K$54</f>
+        <v>0.19576516544063563</v>
       </c>
       <c r="K4" s="26">
-        <f>'Raw Data'!$H$55</f>
+        <f ca="1">'Raw Data'!$H$55</f>
         <v>3</v>
       </c>
       <c r="L4" s="26">
-        <f>'Raw Data'!$I$55</f>
+        <f ca="1">'Raw Data'!$I$55</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="M4" s="15">
-        <f>'Raw Data'!$J$55</f>
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f ca="1">'Raw Data'!$K$55</f>
+        <v>0.46518813398452652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="27">
-        <f>'Raw Data'!$H$102</f>
+        <f ca="1">'Raw Data'!$H$102</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="27">
-        <f>'Raw Data'!$I$102</f>
+        <f ca="1">'Raw Data'!$I$102</f>
         <v>3.8</v>
       </c>
       <c r="D5" s="17">
-        <f>'Raw Data'!$J$102</f>
-        <v>2.9739999999999998</v>
+        <f ca="1">'Raw Data'!$K$102</f>
+        <v>0.31925538366643402</v>
       </c>
       <c r="E5" s="27">
-        <f>'Raw Data'!$H$103</f>
+        <f ca="1">'Raw Data'!$H$103</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="F5" s="27">
-        <f>'Raw Data'!$I$103</f>
+        <f ca="1">'Raw Data'!$I$103</f>
         <v>7.9</v>
       </c>
       <c r="G5" s="17">
-        <f>'Raw Data'!$J$103</f>
-        <v>6.5879999999999983</v>
+        <f ca="1">'Raw Data'!$K$103</f>
+        <v>0.62948868139152014</v>
       </c>
       <c r="H5" s="27">
-        <f>'Raw Data'!$H$104</f>
+        <f ca="1">'Raw Data'!$H$104</f>
         <v>1.4</v>
       </c>
       <c r="I5" s="27">
-        <f>'Raw Data'!$I$104</f>
+        <f ca="1">'Raw Data'!$I$104</f>
         <v>2.5</v>
       </c>
       <c r="J5" s="17">
-        <f>'Raw Data'!$J$104</f>
-        <v>2.0259999999999998</v>
+        <f ca="1">'Raw Data'!$K$104</f>
+        <v>0.27188968351153242</v>
       </c>
       <c r="K5" s="27">
-        <f>'Raw Data'!$H$105</f>
+        <f ca="1">'Raw Data'!$H$105</f>
         <v>4.5</v>
       </c>
       <c r="L5" s="27">
-        <f>'Raw Data'!$I$105</f>
+        <f ca="1">'Raw Data'!$I$105</f>
         <v>6.9</v>
       </c>
       <c r="M5" s="18">
-        <f>'Raw Data'!$J$105</f>
-        <v>5.5519999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f ca="1">'Raw Data'!$K$105</f>
+        <v>0.54634787452684053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
+++ b/Labs/Lab1/CS286 - Lab #1 Dataset Analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="iris_data" localSheetId="0">'Raw Data'!$A$1:$E$150</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Min</t>
   </si>
@@ -62,15 +62,21 @@
   <si>
     <t>Stdev</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +357,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,6 +444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -467,6 +479,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,20 +655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -685,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -721,7 +734,7 @@
         <v>0.37525458025186098</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>4.7</v>
       </c>
@@ -754,10 +767,10 @@
       </c>
       <c r="K3" s="15">
         <f>STDEVP($A$1:$A$50)</f>
-        <v>0.34894698737773694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.34894698737773899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -793,7 +806,7 @@
         <v>0.1043264108459601</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -829,7 +842,7 @@
         <v>0.171918585382729</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickTop="1">
+    <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5.4</v>
       </c>
@@ -846,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -863,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -880,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -897,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -914,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5.4</v>
       </c>
@@ -931,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.8</v>
       </c>
@@ -948,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4.8</v>
       </c>
@@ -965,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4.3</v>
       </c>
@@ -982,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.8</v>
       </c>
@@ -999,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5.7</v>
       </c>
@@ -1016,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5.4</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5.7</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5.4</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4.8</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -1186,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5.2</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5.2</v>
       </c>
@@ -1237,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4.7</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4.8</v>
       </c>
@@ -1271,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>5.4</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>5.2</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>5.5</v>
       </c>
@@ -1322,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1339,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>5.5</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4.5</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1475,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -1492,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>4.8</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1560,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>5.3</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" thickBot="1">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>5</v>
       </c>
@@ -1594,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickTop="1">
+    <row r="51" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>6.4</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>0.31064449134017902</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>6.9</v>
       </c>
@@ -1693,10 +1706,10 @@
       </c>
       <c r="K53" s="15">
         <f>STDEVP($A$51:$A$100)</f>
-        <v>0.51098336567838443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>0.51098336567837521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.5</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>0.19576516544063563</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>6.5</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>0.46518813398452652</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickTop="1">
+    <row r="56" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>5.7</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>6.3</v>
       </c>
@@ -1802,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -1819,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>6.6</v>
       </c>
@@ -1836,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5.2</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>5.9</v>
       </c>
@@ -1887,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>6</v>
       </c>
@@ -1904,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>6.1</v>
       </c>
@@ -1921,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.6</v>
       </c>
@@ -1938,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>6.7</v>
       </c>
@@ -1955,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>5.6</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>5.8</v>
       </c>
@@ -1989,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>6.2</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>5.6</v>
       </c>
@@ -2023,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5.9</v>
       </c>
@@ -2040,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>6.1</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>6.3</v>
       </c>
@@ -2074,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>6.1</v>
       </c>
@@ -2091,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>6.4</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>6.6</v>
       </c>
@@ -2125,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>6.8</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>6.7</v>
       </c>
@@ -2159,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>6</v>
       </c>
@@ -2176,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>5.7</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>5.5</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>5.5</v>
       </c>
@@ -2227,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>5.8</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>6</v>
       </c>
@@ -2261,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>5.4</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>6</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>6.7</v>
       </c>
@@ -2312,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>6.3</v>
       </c>
@@ -2329,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>5.6</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>5.5</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>5.5</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>6.1</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5.8</v>
       </c>
@@ -2414,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -2431,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>5.6</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>5.7</v>
       </c>
@@ -2465,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>5.7</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6.2</v>
       </c>
@@ -2499,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -2516,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>5.7</v>
       </c>
@@ -2533,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" thickTop="1">
+    <row r="101" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>6.3</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>5.8</v>
       </c>
@@ -2599,7 +2612,7 @@
         <v>0.31925538366643402</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>7.1</v>
       </c>
@@ -2632,10 +2645,10 @@
       </c>
       <c r="K103" s="15">
         <f>STDEVP($A$101:$A$150)</f>
-        <v>0.62948868139152014</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>0.6294886813914925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>6.3</v>
       </c>
@@ -2671,7 +2684,7 @@
         <v>0.27188968351153242</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>6.5</v>
       </c>
@@ -2704,10 +2717,10 @@
       </c>
       <c r="K105" s="18">
         <f>STDEVP($C$101:$C$150)</f>
-        <v>0.54634787452684053</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" thickTop="1">
+        <v>0.54634787452684408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>7.6</v>
       </c>
@@ -2724,7 +2737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -2741,7 +2754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7.3</v>
       </c>
@@ -2758,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>6.7</v>
       </c>
@@ -2775,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7.2</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>6.5</v>
       </c>
@@ -2809,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>6.4</v>
       </c>
@@ -2826,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>6.8</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>5.7</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>5.8</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>6.4</v>
       </c>
@@ -2894,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>6.5</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>7.7</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>7.7</v>
       </c>
@@ -2945,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>6</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>6.9</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>5.6</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>7.7</v>
       </c>
@@ -3013,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>6.3</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>6.7</v>
       </c>
@@ -3047,7 +3060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>7.2</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6.2</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>6.1</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.4</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>7.2</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>7.4</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>7.9</v>
       </c>
@@ -3166,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>6.4</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>6.3</v>
       </c>
@@ -3200,7 +3213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>6.1</v>
       </c>
@@ -3217,7 +3230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>7.7</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>6.3</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>6.4</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>6</v>
       </c>
@@ -3285,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>6.9</v>
       </c>
@@ -3302,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>6.7</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>6.9</v>
       </c>
@@ -3336,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>5.8</v>
       </c>
@@ -3353,7 +3366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>6.8</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>6.7</v>
       </c>
@@ -3387,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>6.7</v>
       </c>
@@ -3404,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>6.3</v>
       </c>
@@ -3421,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>6.5</v>
       </c>
@@ -3438,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>6.2</v>
       </c>
@@ -3455,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1">
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>5.9</v>
       </c>
@@ -3472,7 +3485,3532 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="151" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>MIN(A$1:A$150)</f>
+        <v>4.3</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ref="B152:D152" si="0">MIN(B$1:B$150)</f>
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>MAX(A$1:A$150)</f>
+        <v>7.9</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ref="B153:D153" si="1">MAX(B$1:B$150)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>MIN(A$1:A$150)</f>
+        <v>4.3</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ref="B156:D156" si="2">MIN(B$1:B$150)</f>
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>MAX(A$1:A$150)</f>
+        <v>7.9</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ref="B157:D157" si="3">MAX(B$1:B$150)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="3"/>
+        <v>6.9</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>(A157-A156)/$E$156</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="B158">
+        <f>(B157-B156)/$E$156</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="C158">
+        <f>(C157-C156)/$E$156</f>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="D158">
+        <f>(D157-D156)/$E$156</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>A$156+(ROW(A160)-ROW(A$160)+0.5)*A$158</f>
+        <v>4.66</v>
+      </c>
+      <c r="B160">
+        <f>B$156+(ROW(B160)-ROW(B$160)+0.5)*B$158</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C160">
+        <f>C$156+(ROW(C160)-ROW(C$160)+0.5)*C$158</f>
+        <v>1.59</v>
+      </c>
+      <c r="D160">
+        <f>D$156+(ROW(D160)-ROW(D$160)+0.5)*D$158</f>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ref="A161:D164" si="4">A$156+(ROW(A161)-ROW(A$160)+0.5)*A$158</f>
+        <v>5.38</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>2.72</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>2.7700000000000005</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="4"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>3.95</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f>A$156+(ROW(A163)-ROW(A$160)+0.5)*A$158</f>
+        <v>6.82</v>
+      </c>
+      <c r="B163">
+        <f>B$156+(ROW(B163)-ROW(B$160)+0.5)*B$158</f>
+        <v>3.6800000000000006</v>
+      </c>
+      <c r="C163">
+        <f>C$156+(ROW(C163)-ROW(C$160)+0.5)*C$158</f>
+        <v>5.1300000000000008</v>
+      </c>
+      <c r="D163">
+        <f>D$156+(ROW(D163)-ROW(D$160)+0.5)*D$158</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="4"/>
+        <v>7.54</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>4.16</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>6.3100000000000005</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>2.2600000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f>AVERAGE(A1:A150)</f>
+        <v>5.8433333333333346</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ref="B169:D169" si="5">AVERAGE(B1:B150)</f>
+        <v>3.0573333333333341</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="5"/>
+        <v>3.7580000000000027</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="5"/>
+        <v>1.199333333333334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f>SQRT(A169^2+B169^2+C169^2+D169^2)</f>
+        <v>7.6845817062479096</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f>A171*4/(5*4/2)</f>
+        <v>3.0738326824991637</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f>(A1-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B174">
+        <f>(B1-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C174">
+        <f>(C1-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D174">
+        <f>(D1-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E174">
+        <f>SQRT(A174+B174+C174+D174)</f>
+        <v>2.7032072309265063</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f>(A2-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B175">
+        <f>(B2-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C175">
+        <f>(C2-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D175">
+        <f>(D2-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ref="E175:E238" si="6">SQRT(A175+B175+C175+D175)</f>
+        <v>2.7298344272134925</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f>(A3-A$169)^2</f>
+        <v>1.3072111111111135</v>
+      </c>
+      <c r="B176">
+        <f>(B3-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C176">
+        <f>(C3-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D176">
+        <f>(D3-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="6"/>
+        <v>2.8927488656985103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f>(A4-A$169)^2</f>
+        <v>1.5458777777777819</v>
+      </c>
+      <c r="B177">
+        <f>(B4-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C177">
+        <f>(C4-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D177">
+        <f>(D4-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="6"/>
+        <v>2.7649465335397267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f>(A5-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B178">
+        <f>(B5-B$169)^2</f>
+        <v>0.29448711111111037</v>
+      </c>
+      <c r="C178">
+        <f>(C5-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D178">
+        <f>(D5-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="6"/>
+        <v>2.7503689449478137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f>(A6-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B179">
+        <f>(B6-B$169)^2</f>
+        <v>0.71008711111110967</v>
+      </c>
+      <c r="C179">
+        <f>(C6-C$169)^2</f>
+        <v>4.2353640000000103</v>
+      </c>
+      <c r="D179">
+        <f>(D6-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="6"/>
+        <v>2.4043563241194814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f>(A7-A$169)^2</f>
+        <v>1.5458777777777819</v>
+      </c>
+      <c r="B180">
+        <f>(B7-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C180">
+        <f>(C7-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D180">
+        <f>(D7-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="6"/>
+        <v>2.8341246738043626</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f>(A8-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B181">
+        <f>(B8-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C181">
+        <f>(C8-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D181">
+        <f>(D8-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="6"/>
+        <v>2.6317033774091412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f>(A9-A$169)^2</f>
+        <v>2.0832111111111136</v>
+      </c>
+      <c r="B182">
+        <f>(B9-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C182">
+        <f>(C9-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D182">
+        <f>(D9-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="6"/>
+        <v>2.9439422548684644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f>(A10-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B183">
+        <f>(B10-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C183">
+        <f>(C10-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D183">
+        <f>(D10-D$169)^2</f>
+        <v>1.2085337777777792</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="6"/>
+        <v>2.6830572114660574</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f>(A11-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B184">
+        <f>(B11-B$169)^2</f>
+        <v>0.41302044444444364</v>
+      </c>
+      <c r="C184">
+        <f>(C11-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D184">
+        <f>(D11-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="6"/>
+        <v>2.5897482503131481</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f>(A12-A$169)^2</f>
+        <v>1.0885444444444474</v>
+      </c>
+      <c r="B185">
+        <f>(B12-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C185">
+        <f>(C12-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D185">
+        <f>(D12-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="6"/>
+        <v>2.6194648308385466</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f>(A13-A$169)^2</f>
+        <v>1.0885444444444474</v>
+      </c>
+      <c r="B186">
+        <f>(B13-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C186">
+        <f>(C13-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D186">
+        <f>(D13-D$169)^2</f>
+        <v>1.2085337777777792</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="6"/>
+        <v>2.8036635556595142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f>(A14-A$169)^2</f>
+        <v>2.3818777777777824</v>
+      </c>
+      <c r="B187">
+        <f>(B14-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C187">
+        <f>(C14-C$169)^2</f>
+        <v>7.064964000000014</v>
+      </c>
+      <c r="D187">
+        <f>(D14-D$169)^2</f>
+        <v>1.2085337777777792</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="6"/>
+        <v>3.2647607365114348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f>(A15-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B188">
+        <f>(B15-B$169)^2</f>
+        <v>0.88862044444444299</v>
+      </c>
+      <c r="C188">
+        <f>(C15-C$169)^2</f>
+        <v>6.5433640000000128</v>
+      </c>
+      <c r="D188">
+        <f>(D15-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="6"/>
+        <v>2.9038817698613948</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f>(A16-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B189">
+        <f>(B16-B$169)^2</f>
+        <v>1.8027537777777767</v>
+      </c>
+      <c r="C189">
+        <f>(C16-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D189">
+        <f>(D16-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="6"/>
+        <v>2.7496901643639799</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f>(A17-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B190">
+        <f>(B17-B$169)^2</f>
+        <v>0.71008711111110967</v>
+      </c>
+      <c r="C190">
+        <f>(C17-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D190">
+        <f>(D17-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="6"/>
+        <v>2.7545107248535716</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f>(A18-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B191">
+        <f>(B18-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C191">
+        <f>(C18-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D191">
+        <f>(D18-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="6"/>
+        <v>2.6678573175240619</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f>(A19-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B192">
+        <f>(B19-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C192">
+        <f>(C19-C$169)^2</f>
+        <v>4.2353640000000103</v>
+      </c>
+      <c r="D192">
+        <f>(D19-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="6"/>
+        <v>2.3698655376764894</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f>(A20-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B193">
+        <f>(B20-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C193">
+        <f>(C20-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D193">
+        <f>(D20-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="6"/>
+        <v>2.6479166653553659</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f>(A21-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B194">
+        <f>(B21-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C194">
+        <f>(C21-C$169)^2</f>
+        <v>4.2353640000000103</v>
+      </c>
+      <c r="D194">
+        <f>(D21-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="6"/>
+        <v>2.3554184341640898</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f>(A22-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B195">
+        <f>(B22-B$169)^2</f>
+        <v>0.41302044444444364</v>
+      </c>
+      <c r="C195">
+        <f>(C22-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D195">
+        <f>(D22-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="6"/>
+        <v>2.5890273591962449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f>(A23-A$169)^2</f>
+        <v>1.5458777777777819</v>
+      </c>
+      <c r="B196">
+        <f>(B23-B$169)^2</f>
+        <v>0.29448711111111037</v>
+      </c>
+      <c r="C196">
+        <f>(C23-C$169)^2</f>
+        <v>7.6065640000000148</v>
+      </c>
+      <c r="D196">
+        <f>(D23-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="6"/>
+        <v>3.2319647275303018</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f>(A24-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B197">
+        <f>(B24-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C197">
+        <f>(C24-C$169)^2</f>
+        <v>4.2353640000000103</v>
+      </c>
+      <c r="D197">
+        <f>(D24-D$169)^2</f>
+        <v>0.48906711111111206</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="6"/>
+        <v>2.3099486285774149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f>(A25-A$169)^2</f>
+        <v>1.0885444444444474</v>
+      </c>
+      <c r="B198">
+        <f>(B25-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C198">
+        <f>(C25-C$169)^2</f>
+        <v>3.4521640000000104</v>
+      </c>
+      <c r="D198">
+        <f>(D25-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="6"/>
+        <v>2.3784019845265885</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f>(A26-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B199">
+        <f>(B26-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C199">
+        <f>(C26-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D199">
+        <f>(D26-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="6"/>
+        <v>2.5239115145609499</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f>(A27-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B200">
+        <f>(B27-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C200">
+        <f>(C27-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D200">
+        <f>(D27-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="6"/>
+        <v>2.4747786432999108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f>(A28-A$169)^2</f>
+        <v>0.41387777777777918</v>
+      </c>
+      <c r="B201">
+        <f>(B28-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C201">
+        <f>(C28-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D201">
+        <f>(D28-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="6"/>
+        <v>2.5897997348572495</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f>(A29-A$169)^2</f>
+        <v>0.41387777777777918</v>
+      </c>
+      <c r="B202">
+        <f>(B29-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C202">
+        <f>(C29-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D202">
+        <f>(D29-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="6"/>
+        <v>2.6627296771045588</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f>(A30-A$169)^2</f>
+        <v>1.3072111111111135</v>
+      </c>
+      <c r="B203">
+        <f>(B30-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C203">
+        <f>(C30-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D203">
+        <f>(D30-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="6"/>
+        <v>2.6425737454232028</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f>(A31-A$169)^2</f>
+        <v>1.0885444444444474</v>
+      </c>
+      <c r="B204">
+        <f>(B31-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C204">
+        <f>(C31-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D204">
+        <f>(D31-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="6"/>
+        <v>2.5973055268874345</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f>(A32-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B205">
+        <f>(B32-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C205">
+        <f>(C32-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D205">
+        <f>(D32-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="6"/>
+        <v>2.4599720865625039</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f>(A33-A$169)^2</f>
+        <v>0.41387777777777918</v>
+      </c>
+      <c r="B206">
+        <f>(B33-B$169)^2</f>
+        <v>1.0871537777777753</v>
+      </c>
+      <c r="C206">
+        <f>(C33-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D206">
+        <f>(D33-D$169)^2</f>
+        <v>1.2085337777777792</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="6"/>
+        <v>2.7943030138718576</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f>(A34-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B207">
+        <f>(B34-B$169)^2</f>
+        <v>1.3056871111111097</v>
+      </c>
+      <c r="C207">
+        <f>(C34-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D207">
+        <f>(D34-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="6"/>
+        <v>2.8253134339396779</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f>(A35-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B208">
+        <f>(B35-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C208">
+        <f>(C35-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D208">
+        <f>(D35-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="6"/>
+        <v>2.6436583238636091</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f>(A36-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B209">
+        <f>(B36-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C209">
+        <f>(C36-C$169)^2</f>
+        <v>6.5433640000000128</v>
+      </c>
+      <c r="D209">
+        <f>(D36-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="6"/>
+        <v>2.8763859268185863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f>(A37-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B210">
+        <f>(B37-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C210">
+        <f>(C37-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D210">
+        <f>(D37-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="6"/>
+        <v>2.7118743825381517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f>(A38-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B211">
+        <f>(B38-B$169)^2</f>
+        <v>0.29448711111111037</v>
+      </c>
+      <c r="C211">
+        <f>(C38-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D211">
+        <f>(D38-D$169)^2</f>
+        <v>1.2085337777777792</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="6"/>
+        <v>2.8201174916422689</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f>(A39-A$169)^2</f>
+        <v>2.0832111111111136</v>
+      </c>
+      <c r="B212">
+        <f>(B39-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C212">
+        <f>(C39-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D212">
+        <f>(D39-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="6"/>
+        <v>3.02108082204587</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f>(A40-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B213">
+        <f>(B40-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C213">
+        <f>(C40-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D213">
+        <f>(D40-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="6"/>
+        <v>2.6013834780746983</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f>(A41-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B214">
+        <f>(B41-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C214">
+        <f>(C41-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D214">
+        <f>(D41-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="6"/>
+        <v>2.785270064703484</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f>(A42-A$169)^2</f>
+        <v>1.8045444444444478</v>
+      </c>
+      <c r="B215">
+        <f>(B42-B$169)^2</f>
+        <v>0.57355377777777927</v>
+      </c>
+      <c r="C215">
+        <f>(C42-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D215">
+        <f>(D42-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="6"/>
+        <v>3.0378714039054855</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f>(A43-A$169)^2</f>
+        <v>2.0832111111111136</v>
+      </c>
+      <c r="B216">
+        <f>(B43-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C216">
+        <f>(C43-C$169)^2</f>
+        <v>6.0417640000000139</v>
+      </c>
+      <c r="D216">
+        <f>(D43-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="6"/>
+        <v>3.0239040990084352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f>(A44-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B217">
+        <f>(B44-B$169)^2</f>
+        <v>0.19595377777777709</v>
+      </c>
+      <c r="C217">
+        <f>(C44-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D217">
+        <f>(D44-D$169)^2</f>
+        <v>0.35920044444444532</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="6"/>
+        <v>2.4337890897391552</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f>(A45-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B218">
+        <f>(B45-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C218">
+        <f>(C45-C$169)^2</f>
+        <v>3.4521640000000104</v>
+      </c>
+      <c r="D218">
+        <f>(D45-D$169)^2</f>
+        <v>0.63893377777777882</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="6"/>
+        <v>2.2792972601220782</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f>(A46-A$169)^2</f>
+        <v>1.0885444444444474</v>
+      </c>
+      <c r="B219">
+        <f>(B46-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C219">
+        <f>(C46-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D219">
+        <f>(D46-D$169)^2</f>
+        <v>0.80880044444444565</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="6"/>
+        <v>2.7314457710157853</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f>(A47-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B220">
+        <f>(B47-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C220">
+        <f>(C47-C$169)^2</f>
+        <v>4.656964000000011</v>
+      </c>
+      <c r="D220">
+        <f>(D47-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="6"/>
+        <v>2.5999479481969145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f>(A48-A$169)^2</f>
+        <v>1.5458777777777819</v>
+      </c>
+      <c r="B221">
+        <f>(B48-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C221">
+        <f>(C48-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D221">
+        <f>(D48-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="6"/>
+        <v>2.8504495551871609</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f>(A49-A$169)^2</f>
+        <v>0.2952111111111127</v>
+      </c>
+      <c r="B222">
+        <f>(B49-B$169)^2</f>
+        <v>0.41302044444444364</v>
+      </c>
+      <c r="C222">
+        <f>(C49-C$169)^2</f>
+        <v>5.0985640000000121</v>
+      </c>
+      <c r="D222">
+        <f>(D49-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="6"/>
+        <v>2.6087281703287295</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f>(A50-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B223">
+        <f>(B50-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C223">
+        <f>(C50-C$169)^2</f>
+        <v>5.5601640000000128</v>
+      </c>
+      <c r="D223">
+        <f>(D50-D$169)^2</f>
+        <v>0.99866711111111262</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="6"/>
+        <v>2.7071995370370003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f>(A51-A$169)^2</f>
+        <v>1.3378777777777748</v>
+      </c>
+      <c r="B224">
+        <f>(B51-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C224">
+        <f>(C51-C$169)^2</f>
+        <v>0.88736399999999527</v>
+      </c>
+      <c r="D224">
+        <f>(D51-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="6"/>
+        <v>1.5119069636279403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f>(A52-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B225">
+        <f>(B52-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C225">
+        <f>(C52-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D225">
+        <f>(D52-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="6"/>
+        <v>0.98549277014090497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f>(A53-A$169)^2</f>
+        <v>1.1165444444444426</v>
+      </c>
+      <c r="B226">
+        <f>(B53-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C226">
+        <f>(C53-C$169)^2</f>
+        <v>1.3041639999999948</v>
+      </c>
+      <c r="D226">
+        <f>(D53-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="6"/>
+        <v>1.5852221716003487</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f>(A54-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B227">
+        <f>(B54-B$169)^2</f>
+        <v>0.57355377777777927</v>
+      </c>
+      <c r="C227">
+        <f>(C54-C$169)^2</f>
+        <v>5.8563999999998707E-2</v>
+      </c>
+      <c r="D227">
+        <f>(D54-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="6"/>
+        <v>0.8718539633065473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f>(A55-A$169)^2</f>
+        <v>0.43121111111110944</v>
+      </c>
+      <c r="B228">
+        <f>(B55-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C228">
+        <f>(C55-C$169)^2</f>
+        <v>0.70896399999999493</v>
+      </c>
+      <c r="D228">
+        <f>(D55-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="6"/>
+        <v>1.1387695113586389</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f>(A56-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B229">
+        <f>(B56-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C229">
+        <f>(C56-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D229">
+        <f>(D56-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="6"/>
+        <v>0.80465064883256221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f>(A57-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B230">
+        <f>(B57-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C230">
+        <f>(C57-C$169)^2</f>
+        <v>0.88736399999999527</v>
+      </c>
+      <c r="D230">
+        <f>(D57-D$169)^2</f>
+        <v>0.1605337777777773</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="6"/>
+        <v>1.1468780812855943</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f>(A58-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B231">
+        <f>(B58-B$169)^2</f>
+        <v>0.43208711111111225</v>
+      </c>
+      <c r="C231">
+        <f>(C58-C$169)^2</f>
+        <v>0.20976400000000262</v>
+      </c>
+      <c r="D231">
+        <f>(D58-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="6"/>
+        <v>1.2535799402777121</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f>(A59-A$169)^2</f>
+        <v>0.57254444444444197</v>
+      </c>
+      <c r="B232">
+        <f>(B59-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C232">
+        <f>(C59-C$169)^2</f>
+        <v>0.70896399999999493</v>
+      </c>
+      <c r="D232">
+        <f>(D59-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="6"/>
+        <v>1.1473430175845376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f>(A60-A$169)^2</f>
+        <v>0.41387777777777918</v>
+      </c>
+      <c r="B233">
+        <f>(B60-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C233">
+        <f>(C60-C$169)^2</f>
+        <v>2.0163999999999217E-2</v>
+      </c>
+      <c r="D233">
+        <f>(D60-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="6"/>
+        <v>0.77588401195024037</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f>(A61-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B234">
+        <f>(B61-B$169)^2</f>
+        <v>1.1179537777777795</v>
+      </c>
+      <c r="C234">
+        <f>(C61-C$169)^2</f>
+        <v>6.6564000000001372E-2</v>
+      </c>
+      <c r="D234">
+        <f>(D61-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="6"/>
+        <v>1.3912090664837806</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f>(A62-A$169)^2</f>
+        <v>3.211111111111008E-3</v>
+      </c>
+      <c r="B235">
+        <f>(B62-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C235">
+        <f>(C62-C$169)^2</f>
+        <v>0.19536399999999779</v>
+      </c>
+      <c r="D235">
+        <f>(D62-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="6"/>
+        <v>0.54061323204918321</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f>(A63-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B236">
+        <f>(B63-B$169)^2</f>
+        <v>0.73502044444444548</v>
+      </c>
+      <c r="C236">
+        <f>(C63-C$169)^2</f>
+        <v>5.8563999999998707E-2</v>
+      </c>
+      <c r="D236">
+        <f>(D63-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="6"/>
+        <v>0.92620875976567307</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f>(A64-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B237">
+        <f>(B64-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C237">
+        <f>(C64-C$169)^2</f>
+        <v>0.88736399999999527</v>
+      </c>
+      <c r="D237">
+        <f>(D64-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="6"/>
+        <v>1.0090900191096239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f>(A65-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B238">
+        <f>(B65-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C238">
+        <f>(C65-C$169)^2</f>
+        <v>2.4964000000000815E-2</v>
+      </c>
+      <c r="D238">
+        <f>(D65-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="6"/>
+        <v>0.34505458505382652</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f>(A66-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B239">
+        <f>(B66-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C239">
+        <f>(C66-C$169)^2</f>
+        <v>0.41216399999999703</v>
+      </c>
+      <c r="D239">
+        <f>(D66-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E239">
+        <f t="shared" ref="E239:E302" si="7">SQRT(A239+B239+C239+D239)</f>
+        <v>1.0900134555744385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f>(A67-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B240">
+        <f>(B67-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C240">
+        <f>(C67-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D240">
+        <f>(D67-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="7"/>
+        <v>0.8387268128936044</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>(A68-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B241">
+        <f>(B68-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C241">
+        <f>(C68-C$169)^2</f>
+        <v>0.11696399999999793</v>
+      </c>
+      <c r="D241">
+        <f>(D68-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="7"/>
+        <v>0.53503520133414162</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>(A69-A$169)^2</f>
+        <v>0.12721111111111033</v>
+      </c>
+      <c r="B242">
+        <f>(B69-B$169)^2</f>
+        <v>0.73502044444444548</v>
+      </c>
+      <c r="C242">
+        <f>(C69-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D242">
+        <f>(D69-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="7"/>
+        <v>1.2260489386643567</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>(A70-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B243">
+        <f>(B70-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C243">
+        <f>(C70-C$169)^2</f>
+        <v>2.0163999999999217E-2</v>
+      </c>
+      <c r="D243">
+        <f>(D70-D$169)^2</f>
+        <v>9.8671111111112309E-3</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="7"/>
+        <v>0.63234695118002082</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>(A71-A$169)^2</f>
+        <v>3.211111111111008E-3</v>
+      </c>
+      <c r="B244">
+        <f>(B71-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C244">
+        <f>(C71-C$169)^2</f>
+        <v>1.085763999999994</v>
+      </c>
+      <c r="D244">
+        <f>(D71-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="7"/>
+        <v>1.2124889002928341</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>(A72-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B245">
+        <f>(B72-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C245">
+        <f>(C72-C$169)^2</f>
+        <v>5.8563999999998707E-2</v>
+      </c>
+      <c r="D245">
+        <f>(D72-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="7"/>
+        <v>0.44810266680750543</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f>(A73-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B246">
+        <f>(B73-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C246">
+        <f>(C73-C$169)^2</f>
+        <v>1.3041639999999948</v>
+      </c>
+      <c r="D246">
+        <f>(D73-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="7"/>
+        <v>1.3833760635970709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f>(A74-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B247">
+        <f>(B74-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C247">
+        <f>(C74-C$169)^2</f>
+        <v>0.88736399999999527</v>
+      </c>
+      <c r="D247">
+        <f>(D74-D$169)^2</f>
+        <v>4.4444444444345838E-7</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="7"/>
+        <v>1.0096844391524817</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f>(A75-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B248">
+        <f>(B75-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C248">
+        <f>(C75-C$169)^2</f>
+        <v>0.29376399999999692</v>
+      </c>
+      <c r="D248">
+        <f>(D75-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="7"/>
+        <v>0.79908030468365909</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f>(A76-A$169)^2</f>
+        <v>0.57254444444444197</v>
+      </c>
+      <c r="B249">
+        <f>(B76-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C249">
+        <f>(C76-C$169)^2</f>
+        <v>0.41216399999999703</v>
+      </c>
+      <c r="D249">
+        <f>(D76-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="7"/>
+        <v>1.0140328725769501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f>(A77-A$169)^2</f>
+        <v>0.91521111111110831</v>
+      </c>
+      <c r="B250">
+        <f>(B77-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C250">
+        <f>(C77-C$169)^2</f>
+        <v>1.085763999999994</v>
+      </c>
+      <c r="D250">
+        <f>(D77-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="7"/>
+        <v>1.4517102557558301</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f>(A78-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B251">
+        <f>(B78-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C251">
+        <f>(C78-C$169)^2</f>
+        <v>1.5425639999999934</v>
+      </c>
+      <c r="D251">
+        <f>(D78-D$169)^2</f>
+        <v>0.2506671111111104</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="7"/>
+        <v>1.590721848721514</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>(A79-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B252">
+        <f>(B79-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C252">
+        <f>(C79-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D252">
+        <f>(D79-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="7"/>
+        <v>0.83082047800151282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>(A80-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B253">
+        <f>(B80-B$169)^2</f>
+        <v>0.20915377777777841</v>
+      </c>
+      <c r="C253">
+        <f>(C80-C$169)^2</f>
+        <v>6.6564000000001372E-2</v>
+      </c>
+      <c r="D253">
+        <f>(D80-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="7"/>
+        <v>0.57965161950951416</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>(A81-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B254">
+        <f>(B81-B$169)^2</f>
+        <v>0.43208711111111225</v>
+      </c>
+      <c r="C254">
+        <f>(C81-C$169)^2</f>
+        <v>1.7639999999997608E-3</v>
+      </c>
+      <c r="D254">
+        <f>(D81-D$169)^2</f>
+        <v>9.8671111111112309E-3</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="7"/>
+        <v>0.74939709100049356</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>(A82-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B255">
+        <f>(B82-B$169)^2</f>
+        <v>0.43208711111111225</v>
+      </c>
+      <c r="C255">
+        <f>(C82-C$169)^2</f>
+        <v>3.3640000000002895E-3</v>
+      </c>
+      <c r="D255">
+        <f>(D82-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="7"/>
+        <v>0.77010562046168007</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>(A83-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B256">
+        <f>(B83-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C256">
+        <f>(C83-C$169)^2</f>
+        <v>2.0163999999999217E-2</v>
+      </c>
+      <c r="D256">
+        <f>(D83-D$169)^2</f>
+        <v>4.4444444444345838E-7</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="7"/>
+        <v>0.38694874768285931</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>(A84-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B257">
+        <f>(B84-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C257">
+        <f>(C84-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D257">
+        <f>(D84-D$169)^2</f>
+        <v>0.1605337777777773</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="7"/>
+        <v>1.4538670273905123</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f>(A85-A$169)^2</f>
+        <v>0.19654444444444524</v>
+      </c>
+      <c r="B258">
+        <f>(B85-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C258">
+        <f>(C85-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D258">
+        <f>(D85-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="7"/>
+        <v>0.9169492897647048</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f>(A86-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B259">
+        <f>(B86-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C259">
+        <f>(C86-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D259">
+        <f>(D86-D$169)^2</f>
+        <v>0.1605337777777773</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="7"/>
+        <v>0.92361391645354785</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f>(A87-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B260">
+        <f>(B87-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C260">
+        <f>(C87-C$169)^2</f>
+        <v>0.88736399999999527</v>
+      </c>
+      <c r="D260">
+        <f>(D87-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="7"/>
+        <v>1.3089929971801453</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f>(A88-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B261">
+        <f>(B88-B$169)^2</f>
+        <v>0.57355377777777927</v>
+      </c>
+      <c r="C261">
+        <f>(C88-C$169)^2</f>
+        <v>0.41216399999999703</v>
+      </c>
+      <c r="D261">
+        <f>(D88-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="7"/>
+        <v>1.0974497710601598</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f>(A89-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B262">
+        <f>(B89-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C262">
+        <f>(C89-C$169)^2</f>
+        <v>0.11696399999999793</v>
+      </c>
+      <c r="D262">
+        <f>(D89-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="7"/>
+        <v>0.43542622796519581</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f>(A90-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B263">
+        <f>(B90-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C263">
+        <f>(C90-C$169)^2</f>
+        <v>5.8563999999998707E-2</v>
+      </c>
+      <c r="D263">
+        <f>(D90-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="7"/>
+        <v>0.70512126616632431</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f>(A91-A$169)^2</f>
+        <v>0.11787777777777865</v>
+      </c>
+      <c r="B264">
+        <f>(B91-B$169)^2</f>
+        <v>0.20915377777777841</v>
+      </c>
+      <c r="C264">
+        <f>(C91-C$169)^2</f>
+        <v>0.41216399999999703</v>
+      </c>
+      <c r="D264">
+        <f>(D91-D$169)^2</f>
+        <v>4.4444444444345838E-7</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="7"/>
+        <v>0.85976508419451325</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f>(A92-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B265">
+        <f>(B92-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C265">
+        <f>(C92-C$169)^2</f>
+        <v>0.70896399999999493</v>
+      </c>
+      <c r="D265">
+        <f>(D92-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="7"/>
+        <v>0.90465241944074515</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f>(A93-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B266">
+        <f>(B93-B$169)^2</f>
+        <v>0.20915377777777841</v>
+      </c>
+      <c r="C266">
+        <f>(C93-C$169)^2</f>
+        <v>5.8563999999998707E-2</v>
+      </c>
+      <c r="D266">
+        <f>(D93-D$169)^2</f>
+        <v>4.4444444444345838E-7</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="7"/>
+        <v>0.51922634755952002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f>(A94-A$169)^2</f>
+        <v>0.71121111111111324</v>
+      </c>
+      <c r="B267">
+        <f>(B94-B$169)^2</f>
+        <v>0.57355377777777927</v>
+      </c>
+      <c r="C267">
+        <f>(C94-C$169)^2</f>
+        <v>0.20976400000000262</v>
+      </c>
+      <c r="D267">
+        <f>(D94-D$169)^2</f>
+        <v>3.9733777777778055E-2</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="7"/>
+        <v>1.2386535700778782</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f>(A95-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B268">
+        <f>(B95-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C268">
+        <f>(C95-C$169)^2</f>
+        <v>0.19536399999999779</v>
+      </c>
+      <c r="D268">
+        <f>(D95-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="7"/>
+        <v>0.62641519777221155</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f>(A96-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B269">
+        <f>(B96-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C269">
+        <f>(C96-C$169)^2</f>
+        <v>0.19536399999999779</v>
+      </c>
+      <c r="D269">
+        <f>(D96-D$169)^2</f>
+        <v>4.4444444444345838E-7</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="7"/>
+        <v>0.46818372462100621</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f>(A97-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B270">
+        <f>(B97-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C270">
+        <f>(C97-C$169)^2</f>
+        <v>0.19536399999999779</v>
+      </c>
+      <c r="D270">
+        <f>(D97-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="7"/>
+        <v>0.50079536739071207</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f>(A98-A$169)^2</f>
+        <v>0.12721111111111033</v>
+      </c>
+      <c r="B271">
+        <f>(B98-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C271">
+        <f>(C98-C$169)^2</f>
+        <v>0.29376399999999692</v>
+      </c>
+      <c r="D271">
+        <f>(D98-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="7"/>
+        <v>0.67517602643063601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f>(A99-A$169)^2</f>
+        <v>0.55254444444444684</v>
+      </c>
+      <c r="B272">
+        <f>(B99-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C272">
+        <f>(C99-C$169)^2</f>
+        <v>0.57456400000000407</v>
+      </c>
+      <c r="D272">
+        <f>(D99-D$169)^2</f>
+        <v>9.8671111111112309E-3</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="7"/>
+        <v>1.2031608371286058</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f>(A100-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B273">
+        <f>(B100-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C273">
+        <f>(C100-C$169)^2</f>
+        <v>0.11696399999999793</v>
+      </c>
+      <c r="D273">
+        <f>(D100-D$169)^2</f>
+        <v>1.0133777777777646E-2</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="7"/>
+        <v>0.46245288048261229</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f>(A101-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B274">
+        <f>(B101-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C274">
+        <f>(C101-C$169)^2</f>
+        <v>5.026563999999988</v>
+      </c>
+      <c r="D274">
+        <f>(D101-D$169)^2</f>
+        <v>1.6917337777777759</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="7"/>
+        <v>2.6430530326373169</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f>(A102-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B275">
+        <f>(B102-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C275">
+        <f>(C102-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D275">
+        <f>(D102-D$169)^2</f>
+        <v>0.49093377777777669</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="7"/>
+        <v>1.5561049664680908</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f>(A103-A$169)^2</f>
+        <v>1.5792111111111071</v>
+      </c>
+      <c r="B276">
+        <f>(B103-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C276">
+        <f>(C103-C$169)^2</f>
+        <v>4.5881639999999901</v>
+      </c>
+      <c r="D276">
+        <f>(D103-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="7"/>
+        <v>2.6423214540753084</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f>(A104-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B277">
+        <f>(B104-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C277">
+        <f>(C104-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D277">
+        <f>(D104-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="7"/>
+        <v>1.9967630472008073</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f>(A105-A$169)^2</f>
+        <v>0.43121111111110944</v>
+      </c>
+      <c r="B278">
+        <f>(B105-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C278">
+        <f>(C105-C$169)^2</f>
+        <v>4.1697639999999883</v>
+      </c>
+      <c r="D278">
+        <f>(D105-D$169)^2</f>
+        <v>1.0013337777777767</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="7"/>
+        <v>2.3676139888081389</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f>(A106-A$169)^2</f>
+        <v>3.0858777777777719</v>
+      </c>
+      <c r="B279">
+        <f>(B106-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C279">
+        <f>(C106-C$169)^2</f>
+        <v>8.0769639999999825</v>
+      </c>
+      <c r="D279">
+        <f>(D106-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="7"/>
+        <v>3.4608278393085818</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f>(A107-A$169)^2</f>
+        <v>0.88987777777777954</v>
+      </c>
+      <c r="B280">
+        <f>(B107-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C280">
+        <f>(C107-C$169)^2</f>
+        <v>0.55056399999999606</v>
+      </c>
+      <c r="D280">
+        <f>(D107-D$169)^2</f>
+        <v>0.2506671111111104</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="7"/>
+        <v>1.4148248419268483</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f>(A108-A$169)^2</f>
+        <v>2.1218777777777738</v>
+      </c>
+      <c r="B281">
+        <f>(B108-B$169)^2</f>
+        <v>2.4753777777778055E-2</v>
+      </c>
+      <c r="C281">
+        <f>(C108-C$169)^2</f>
+        <v>6.4617639999999854</v>
+      </c>
+      <c r="D281">
+        <f>(D108-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="7"/>
+        <v>2.9948615994733347</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f>(A109-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B282">
+        <f>(B109-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C282">
+        <f>(C109-C$169)^2</f>
+        <v>4.1697639999999883</v>
+      </c>
+      <c r="D282">
+        <f>(D109-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="7"/>
+        <v>2.3611570609907875</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f>(A110-A$169)^2</f>
+        <v>1.8405444444444414</v>
+      </c>
+      <c r="B283">
+        <f>(B110-B$169)^2</f>
+        <v>0.29448711111111037</v>
+      </c>
+      <c r="C283">
+        <f>(C110-C$169)^2</f>
+        <v>5.4849639999999855</v>
+      </c>
+      <c r="D283">
+        <f>(D110-D$169)^2</f>
+        <v>1.6917337777777759</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="7"/>
+        <v>3.0515126303742073</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f>(A111-A$169)^2</f>
+        <v>0.43121111111110944</v>
+      </c>
+      <c r="B284">
+        <f>(B111-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C284">
+        <f>(C111-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D284">
+        <f>(D111-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="7"/>
+        <v>1.7010573182582618</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f>(A112-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B285">
+        <f>(B112-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C285">
+        <f>(C112-C$169)^2</f>
+        <v>2.3777639999999911</v>
+      </c>
+      <c r="D285">
+        <f>(D112-D$169)^2</f>
+        <v>0.49093377777777669</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="7"/>
+        <v>1.8183131376819166</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f>(A113-A$169)^2</f>
+        <v>0.91521111111110831</v>
+      </c>
+      <c r="B286">
+        <f>(B113-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C286">
+        <f>(C113-C$169)^2</f>
+        <v>3.0345639999999907</v>
+      </c>
+      <c r="D286">
+        <f>(D113-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="7"/>
+        <v>2.1827190993498577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f>(A114-A$169)^2</f>
+        <v>2.0544444444444757E-2</v>
+      </c>
+      <c r="B287">
+        <f>(B114-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C287">
+        <f>(C114-C$169)^2</f>
+        <v>1.5425639999999934</v>
+      </c>
+      <c r="D287">
+        <f>(D114-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="7"/>
+        <v>1.5858108336116239</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f>(A115-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B288">
+        <f>(B115-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C288">
+        <f>(C115-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D288">
+        <f>(D115-D$169)^2</f>
+        <v>1.4416004444444426</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="7"/>
+        <v>1.819522648022458</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f>(A116-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B289">
+        <f>(B116-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C289">
+        <f>(C116-C$169)^2</f>
+        <v>2.3777639999999911</v>
+      </c>
+      <c r="D289">
+        <f>(D116-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="7"/>
+        <v>1.9797632855133602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f>(A117-A$169)^2</f>
+        <v>0.43121111111110944</v>
+      </c>
+      <c r="B290">
+        <f>(B117-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C290">
+        <f>(C117-C$169)^2</f>
+        <v>3.0345639999999907</v>
+      </c>
+      <c r="D290">
+        <f>(D117-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="7"/>
+        <v>1.9570034917359385</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f>(A118-A$169)^2</f>
+        <v>3.4472111111111072</v>
+      </c>
+      <c r="B291">
+        <f>(B118-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C291">
+        <f>(C118-C$169)^2</f>
+        <v>8.6553639999999845</v>
+      </c>
+      <c r="D291">
+        <f>(D118-D$169)^2</f>
+        <v>1.0013337777777767</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="7"/>
+        <v>3.6953298454490695</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f>(A119-A$169)^2</f>
+        <v>3.4472111111111072</v>
+      </c>
+      <c r="B292">
+        <f>(B119-B$169)^2</f>
+        <v>0.20915377777777841</v>
+      </c>
+      <c r="C292">
+        <f>(C119-C$169)^2</f>
+        <v>9.8721639999999855</v>
+      </c>
+      <c r="D292">
+        <f>(D119-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="7"/>
+        <v>3.8392702431581944</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f>(A120-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B293">
+        <f>(B120-B$169)^2</f>
+        <v>0.73502044444444548</v>
+      </c>
+      <c r="C293">
+        <f>(C120-C$169)^2</f>
+        <v>1.5425639999999934</v>
+      </c>
+      <c r="D293">
+        <f>(D120-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="7"/>
+        <v>1.5467803119167658</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f>(A121-A$169)^2</f>
+        <v>1.1165444444444426</v>
+      </c>
+      <c r="B294">
+        <f>(B121-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C294">
+        <f>(C121-C$169)^2</f>
+        <v>3.7713639999999904</v>
+      </c>
+      <c r="D294">
+        <f>(D121-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="7"/>
+        <v>2.4738086695080765</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f>(A122-A$169)^2</f>
+        <v>5.9211111111111901E-2</v>
+      </c>
+      <c r="B295">
+        <f>(B122-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C295">
+        <f>(C122-C$169)^2</f>
+        <v>1.3041639999999948</v>
+      </c>
+      <c r="D295">
+        <f>(D122-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="7"/>
+        <v>1.438979731152132</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f>(A123-A$169)^2</f>
+        <v>3.4472111111111072</v>
+      </c>
+      <c r="B296">
+        <f>(B123-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C296">
+        <f>(C123-C$169)^2</f>
+        <v>8.6553639999999845</v>
+      </c>
+      <c r="D296">
+        <f>(D123-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="7"/>
+        <v>3.5790868481592684</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f>(A124-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B297">
+        <f>(B124-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C297">
+        <f>(C124-C$169)^2</f>
+        <v>1.3041639999999948</v>
+      </c>
+      <c r="D297">
+        <f>(D124-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="7"/>
+        <v>1.4146363490310834</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f>(A125-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B298">
+        <f>(B125-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C298">
+        <f>(C125-C$169)^2</f>
+        <v>3.7713639999999904</v>
+      </c>
+      <c r="D298">
+        <f>(D125-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="7"/>
+        <v>2.3184756486392781</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f>(A126-A$169)^2</f>
+        <v>1.8405444444444414</v>
+      </c>
+      <c r="B299">
+        <f>(B126-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C299">
+        <f>(C126-C$169)^2</f>
+        <v>5.026563999999988</v>
+      </c>
+      <c r="D299">
+        <f>(D126-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="7"/>
+        <v>2.6922597695368569</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f>(A127-A$169)^2</f>
+        <v>0.12721111111111033</v>
+      </c>
+      <c r="B300">
+        <f>(B127-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C300">
+        <f>(C127-C$169)^2</f>
+        <v>1.085763999999994</v>
+      </c>
+      <c r="D300">
+        <f>(D127-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="7"/>
+        <v>1.2806232857479958</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f>(A128-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B301">
+        <f>(B128-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C301">
+        <f>(C128-C$169)^2</f>
+        <v>1.3041639999999948</v>
+      </c>
+      <c r="D301">
+        <f>(D128-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="7"/>
+        <v>1.3168634452111299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f>(A129-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B302">
+        <f>(B129-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C302">
+        <f>(C129-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D302">
+        <f>(D129-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="7"/>
+        <v>2.1401548230599237</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f>(A130-A$169)^2</f>
+        <v>1.8405444444444414</v>
+      </c>
+      <c r="B303">
+        <f>(B130-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C303">
+        <f>(C130-C$169)^2</f>
+        <v>4.1697639999999883</v>
+      </c>
+      <c r="D303">
+        <f>(D130-D$169)^2</f>
+        <v>0.1605337777777773</v>
+      </c>
+      <c r="E303">
+        <f t="shared" ref="E303:E323" si="8">SQRT(A303+B303+C303+D303)</f>
+        <v>2.4847795341505288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f>(A131-A$169)^2</f>
+        <v>2.4232111111111081</v>
+      </c>
+      <c r="B304">
+        <f>(B131-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C304">
+        <f>(C131-C$169)^2</f>
+        <v>5.4849639999999855</v>
+      </c>
+      <c r="D304">
+        <f>(D131-D$169)^2</f>
+        <v>0.49093377777777669</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="8"/>
+        <v>2.9095239014885776</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f>(A132-A$169)^2</f>
+        <v>4.2298777777777739</v>
+      </c>
+      <c r="B305">
+        <f>(B132-B$169)^2</f>
+        <v>0.55155377777777637</v>
+      </c>
+      <c r="C305">
+        <f>(C132-C$169)^2</f>
+        <v>6.9801639999999878</v>
+      </c>
+      <c r="D305">
+        <f>(D132-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="8"/>
+        <v>3.5217414252989454</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f>(A133-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B306">
+        <f>(B133-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C306">
+        <f>(C133-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D306">
+        <f>(D133-D$169)^2</f>
+        <v>1.0013337777777767</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="8"/>
+        <v>2.1841236228748562</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f>(A134-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B307">
+        <f>(B134-B$169)^2</f>
+        <v>6.6220444444444942E-2</v>
+      </c>
+      <c r="C307">
+        <f>(C134-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D307">
+        <f>(D134-D$169)^2</f>
+        <v>9.040044444444402E-2</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="8"/>
+        <v>1.4717776100122342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f>(A135-A$169)^2</f>
+        <v>6.5877777777776939E-2</v>
+      </c>
+      <c r="B308">
+        <f>(B135-B$169)^2</f>
+        <v>0.20915377777777841</v>
+      </c>
+      <c r="C308">
+        <f>(C135-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D308">
+        <f>(D135-D$169)^2</f>
+        <v>4.0267111111110795E-2</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="8"/>
+        <v>1.9256849863533378</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <f>(A136-A$169)^2</f>
+        <v>3.4472111111111072</v>
+      </c>
+      <c r="B309">
+        <f>(B136-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C309">
+        <f>(C136-C$169)^2</f>
+        <v>5.4849639999999855</v>
+      </c>
+      <c r="D309">
+        <f>(D136-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="8"/>
+        <v>3.185424513833802</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f>(A137-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B310">
+        <f>(B137-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C310">
+        <f>(C137-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D310">
+        <f>(D137-D$169)^2</f>
+        <v>1.4416004444444426</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="8"/>
+        <v>2.2716798483354381</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <f>(A138-A$169)^2</f>
+        <v>0.30987777777777675</v>
+      </c>
+      <c r="B311">
+        <f>(B138-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C311">
+        <f>(C138-C$169)^2</f>
+        <v>3.0345639999999907</v>
+      </c>
+      <c r="D311">
+        <f>(D138-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="8"/>
+        <v>1.9253733837016278</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f>(A139-A$169)^2</f>
+        <v>2.4544444444444046E-2</v>
+      </c>
+      <c r="B312">
+        <f>(B139-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C312">
+        <f>(C139-C$169)^2</f>
+        <v>1.085763999999994</v>
+      </c>
+      <c r="D312">
+        <f>(D139-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="8"/>
+        <v>1.2142470918227446</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f>(A140-A$169)^2</f>
+        <v>1.1165444444444426</v>
+      </c>
+      <c r="B313">
+        <f>(B140-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C313">
+        <f>(C140-C$169)^2</f>
+        <v>2.6961639999999925</v>
+      </c>
+      <c r="D313">
+        <f>(D140-D$169)^2</f>
+        <v>0.81120044444444339</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="8"/>
+        <v>2.1507508766320016</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f>(A141-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B314">
+        <f>(B141-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C314">
+        <f>(C141-C$169)^2</f>
+        <v>3.392963999999989</v>
+      </c>
+      <c r="D314">
+        <f>(D141-D$169)^2</f>
+        <v>1.4416004444444426</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="8"/>
+        <v>2.360140391304435</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f>(A142-A$169)^2</f>
+        <v>1.1165444444444426</v>
+      </c>
+      <c r="B315">
+        <f>(B142-B$169)^2</f>
+        <v>1.8204444444443846E-3</v>
+      </c>
+      <c r="C315">
+        <f>(C142-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D315">
+        <f>(D142-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="8"/>
+        <v>2.0324359768514206</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f>(A143-A$169)^2</f>
+        <v>1.877777777777903E-3</v>
+      </c>
+      <c r="B316">
+        <f>(B143-B$169)^2</f>
+        <v>0.12768711111111156</v>
+      </c>
+      <c r="C316">
+        <f>(C143-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D316">
+        <f>(D143-D$169)^2</f>
+        <v>0.49093377777777669</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="8"/>
+        <v>1.5561049664680908</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <f>(A144-A$169)^2</f>
+        <v>0.91521111111110831</v>
+      </c>
+      <c r="B317">
+        <f>(B144-B$169)^2</f>
+        <v>2.0353777777777603E-2</v>
+      </c>
+      <c r="C317">
+        <f>(C144-C$169)^2</f>
+        <v>4.5881639999999901</v>
+      </c>
+      <c r="D317">
+        <f>(D144-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="8"/>
+        <v>2.5952256163963829</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f>(A145-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B318">
+        <f>(B145-B$169)^2</f>
+        <v>5.888711111111064E-2</v>
+      </c>
+      <c r="C318">
+        <f>(C145-C$169)^2</f>
+        <v>3.7713639999999904</v>
+      </c>
+      <c r="D318">
+        <f>(D145-D$169)^2</f>
+        <v>1.6917337777777759</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="8"/>
+        <v>2.5011722584953344</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <f>(A146-A$169)^2</f>
+        <v>0.73387777777777596</v>
+      </c>
+      <c r="B319">
+        <f>(B146-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C319">
+        <f>(C146-C$169)^2</f>
+        <v>2.0793639999999929</v>
+      </c>
+      <c r="D319">
+        <f>(D146-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="8"/>
+        <v>2.0069867961698176</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <f>(A147-A$169)^2</f>
+        <v>0.20854444444444312</v>
+      </c>
+      <c r="B320">
+        <f>(B147-B$169)^2</f>
+        <v>0.31062044444444531</v>
+      </c>
+      <c r="C320">
+        <f>(C147-C$169)^2</f>
+        <v>1.5425639999999934</v>
+      </c>
+      <c r="D320">
+        <f>(D147-D$169)^2</f>
+        <v>0.49093377777777669</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="8"/>
+        <v>1.5977054380162379</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f>(A148-A$169)^2</f>
+        <v>0.43121111111110944</v>
+      </c>
+      <c r="B321">
+        <f>(B148-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C321">
+        <f>(C148-C$169)^2</f>
+        <v>2.0793639999999929</v>
+      </c>
+      <c r="D321">
+        <f>(D148-D$169)^2</f>
+        <v>0.64106711111111003</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="8"/>
+        <v>1.7762120744250456</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f>(A149-A$169)^2</f>
+        <v>0.12721111111111033</v>
+      </c>
+      <c r="B322">
+        <f>(B149-B$169)^2</f>
+        <v>0.11742044444444384</v>
+      </c>
+      <c r="C322">
+        <f>(C149-C$169)^2</f>
+        <v>2.6961639999999925</v>
+      </c>
+      <c r="D322">
+        <f>(D149-D$169)^2</f>
+        <v>1.2114671111111093</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="8"/>
+        <v>2.0377101527613428</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f>(A150-A$169)^2</f>
+        <v>3.211111111111008E-3</v>
+      </c>
+      <c r="B323">
+        <f>(B150-B$169)^2</f>
+        <v>3.2871111111112019E-3</v>
+      </c>
+      <c r="C323">
+        <f>(C150-C$169)^2</f>
+        <v>1.8009639999999918</v>
+      </c>
+      <c r="D323">
+        <f>(D150-D$169)^2</f>
+        <v>0.36080044444444365</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="8"/>
+        <v>1.4725021788325672</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <f>SUM(E174:E323)/150</f>
+        <v>1.9440683605553901</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3481,179 +7019,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>0</v>
       </c>
       <c r="B3" s="25">
-        <f ca="1">'Raw Data'!$H$2</f>
+        <f>'Raw Data'!$H$2</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="C3" s="25">
-        <f ca="1">'Raw Data'!$I$2</f>
+        <f>'Raw Data'!$I$2</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="D3" s="11">
-        <f ca="1">'Raw Data'!$K$2</f>
+        <f>'Raw Data'!$K$2</f>
         <v>0.37525458025186098</v>
       </c>
       <c r="E3" s="25">
-        <f ca="1">'Raw Data'!$H$3</f>
+        <f>'Raw Data'!$H$3</f>
         <v>4.3</v>
       </c>
       <c r="F3" s="25">
-        <f ca="1">'Raw Data'!$I$3</f>
+        <f>'Raw Data'!$I$3</f>
         <v>5.8</v>
       </c>
       <c r="G3" s="11">
-        <f ca="1">'Raw Data'!$K$3</f>
-        <v>0.34894698737773694</v>
+        <f>'Raw Data'!$K$3</f>
+        <v>0.34894698737773899</v>
       </c>
       <c r="H3" s="25">
-        <f ca="1">'Raw Data'!$H$4</f>
+        <f>'Raw Data'!$H$4</f>
         <v>0.1</v>
       </c>
       <c r="I3" s="25">
-        <f ca="1">'Raw Data'!$I$4</f>
+        <f>'Raw Data'!$I$4</f>
         <v>0.6</v>
       </c>
       <c r="J3" s="11">
-        <f ca="1">'Raw Data'!$K$4</f>
+        <f>'Raw Data'!$K$4</f>
         <v>0.1043264108459601</v>
       </c>
       <c r="K3" s="25">
-        <f ca="1">'Raw Data'!$H$5</f>
+        <f>'Raw Data'!$H$5</f>
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f ca="1">'Raw Data'!$I$5</f>
+        <f>'Raw Data'!$I$5</f>
         <v>1.9</v>
       </c>
       <c r="M3" s="12">
-        <f ca="1">'Raw Data'!$K$5</f>
+        <f>'Raw Data'!$K$5</f>
         <v>0.171918585382729</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="26">
-        <f ca="1">'Raw Data'!$H$52</f>
+        <f>'Raw Data'!$H$52</f>
         <v>2</v>
       </c>
       <c r="C4" s="26">
-        <f ca="1">'Raw Data'!$I$52</f>
+        <f>'Raw Data'!$I$52</f>
         <v>3.4</v>
       </c>
       <c r="D4" s="14">
-        <f ca="1">'Raw Data'!$K$52</f>
+        <f>'Raw Data'!$K$52</f>
         <v>0.31064449134017902</v>
       </c>
       <c r="E4" s="26">
-        <f ca="1">'Raw Data'!$H$53</f>
+        <f>'Raw Data'!$H$53</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="F4" s="26">
-        <f ca="1">'Raw Data'!$I$53</f>
+        <f>'Raw Data'!$I$53</f>
         <v>7</v>
       </c>
       <c r="G4" s="14">
-        <f ca="1">'Raw Data'!$K$53</f>
-        <v>0.51098336567838443</v>
+        <f>'Raw Data'!$K$53</f>
+        <v>0.51098336567837521</v>
       </c>
       <c r="H4" s="26">
-        <f ca="1">'Raw Data'!$H$54</f>
+        <f>'Raw Data'!$H$54</f>
         <v>1</v>
       </c>
       <c r="I4" s="26">
-        <f ca="1">'Raw Data'!$I$54</f>
+        <f>'Raw Data'!$I$54</f>
         <v>1.8</v>
       </c>
       <c r="J4" s="14">
-        <f ca="1">'Raw Data'!$K$54</f>
+        <f>'Raw Data'!$K$54</f>
         <v>0.19576516544063563</v>
       </c>
       <c r="K4" s="26">
-        <f ca="1">'Raw Data'!$H$55</f>
+        <f>'Raw Data'!$H$55</f>
         <v>3</v>
       </c>
       <c r="L4" s="26">
-        <f ca="1">'Raw Data'!$I$55</f>
+        <f>'Raw Data'!$I$55</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="M4" s="15">
-        <f ca="1">'Raw Data'!$K$55</f>
+        <f>'Raw Data'!$K$55</f>
         <v>0.46518813398452652</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="27">
-        <f ca="1">'Raw Data'!$H$102</f>
+        <f>'Raw Data'!$H$102</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="27">
-        <f ca="1">'Raw Data'!$I$102</f>
+        <f>'Raw Data'!$I$102</f>
         <v>3.8</v>
       </c>
       <c r="D5" s="17">
-        <f ca="1">'Raw Data'!$K$102</f>
+        <f>'Raw Data'!$K$102</f>
         <v>0.31925538366643402</v>
       </c>
       <c r="E5" s="27">
-        <f ca="1">'Raw Data'!$H$103</f>
+        <f>'Raw Data'!$H$103</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="F5" s="27">
-        <f ca="1">'Raw Data'!$I$103</f>
+        <f>'Raw Data'!$I$103</f>
         <v>7.9</v>
       </c>
       <c r="G5" s="17">
-        <f ca="1">'Raw Data'!$K$103</f>
-        <v>0.62948868139152014</v>
+        <f>'Raw Data'!$K$103</f>
+        <v>0.6294886813914925</v>
       </c>
       <c r="H5" s="27">
-        <f ca="1">'Raw Data'!$H$104</f>
+        <f>'Raw Data'!$H$104</f>
         <v>1.4</v>
       </c>
       <c r="I5" s="27">
-        <f ca="1">'Raw Data'!$I$104</f>
+        <f>'Raw Data'!$I$104</f>
         <v>2.5</v>
       </c>
       <c r="J5" s="17">
-        <f ca="1">'Raw Data'!$K$104</f>
+        <f>'Raw Data'!$K$104</f>
         <v>0.27188968351153242</v>
       </c>
       <c r="K5" s="27">
-        <f ca="1">'Raw Data'!$H$105</f>
+        <f>'Raw Data'!$H$105</f>
         <v>4.5</v>
       </c>
       <c r="L5" s="27">
-        <f ca="1">'Raw Data'!$I$105</f>
+        <f>'Raw Data'!$I$105</f>
         <v>6.9</v>
       </c>
       <c r="M5" s="18">
-        <f ca="1">'Raw Data'!$K$105</f>
-        <v>0.54634787452684053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickTop="1"/>
+        <f>'Raw Data'!$K$105</f>
+        <v>0.54634787452684408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
